--- a/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_RPC-EMG_KK01.xlsx
+++ b/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_RPC-EMG_KK01.xlsx
@@ -1250,22 +1250,22 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1409700</xdr:colOff>
+          <xdr:colOff>1435100</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>222250</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="Object 8" hidden="1">
+            <xdr:cNvPr id="2" name="Object 9" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s8200"/>
+                  <a14:compatExt spid="_x0000_s8201"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1643,8 +1643,8 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1923,35 +1923,35 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Presentation" shapeId="2" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
+        <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="2">
+          <objectPr defaultSize="0" dde="1" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>25400</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1409700</xdr:colOff>
+                <xdr:colOff>1435100</xdr:colOff>
                 <xdr:row>28</xdr:row>
-                <xdr:rowOff>222250</xdr:rowOff>
+                <xdr:rowOff>241300</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Presentation" shapeId="8200" r:id="rId4"/>
+        <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8201"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
   <tableParts count="4">
+    <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
-    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_RPC-EMG_KK01.xlsx
+++ b/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_RPC-EMG_KK01.xlsx
@@ -140,12 +140,6 @@
     <t>ISO%</t>
   </si>
   <si>
-    <t>X (A-&gt;P)</t>
-  </si>
-  <si>
-    <t>Y(M-&gt;L)</t>
-  </si>
-  <si>
     <t>_____</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
   </si>
   <si>
     <t>Z (mm, from skull plane)</t>
-  </si>
-  <si>
-    <t>Z (D-&gt;V, from skull plane)</t>
   </si>
   <si>
     <t>Animal ID:</t>
@@ -219,15 +210,6 @@
     </r>
   </si>
   <si>
-    <t>(Lambda_Y)+(0.1*adjust_ratio) = _____</t>
-  </si>
-  <si>
-    <t>(Bregma_Y)-(0.15*adjust_ratio) = _____</t>
-  </si>
-  <si>
-    <t>(Bregma_Y)+(0.15*adjust_ratio) = _____</t>
-  </si>
-  <si>
     <t>L-M1/EEG2</t>
   </si>
   <si>
@@ -243,9 +225,6 @@
     <t>R-PC/EEG1</t>
   </si>
   <si>
-    <t>(Lambda_Y)-(0.1*adjust_ratio) = _____</t>
-  </si>
-  <si>
     <t>EMG</t>
   </si>
   <si>
@@ -265,6 +244,27 @@
   </si>
   <si>
     <t>GND, L-M1/EEG2, EMG-R/EEG3, EMG-L, R-PC/EEG1</t>
+  </si>
+  <si>
+    <t>(Lambda_Y)-(1.0*adjust_ratio) = _____</t>
+  </si>
+  <si>
+    <t>(Bregma_Y)+(1.5*adjust_ratio) = _____</t>
+  </si>
+  <si>
+    <t>(Bregma_Y)-(1.5*adjust_ratio) = _____</t>
+  </si>
+  <si>
+    <t>(Lambda_Y)+(1.0*adjust_ratio) = _____</t>
+  </si>
+  <si>
+    <t>X (A-&gt;P) 0.X sigfig</t>
+  </si>
+  <si>
+    <t>Y(M-&gt;L) 0.X sigfig</t>
+  </si>
+  <si>
+    <t>Z (D-&gt;V, from skull plane) 0.X sigfig</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -514,9 +514,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -567,6 +564,12 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -888,6 +891,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
@@ -905,13 +915,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -935,7 +938,7 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0"/>
@@ -1023,7 +1026,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1039,14 +1042,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2324100</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1619250</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>69849</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1059,10 +1062,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5480050" y="3689350"/>
-          <a:ext cx="1631950" cy="1473200"/>
+          <a:off x="5492750" y="3771900"/>
+          <a:ext cx="1555749" cy="1473200"/>
           <a:chOff x="1389436" y="4869418"/>
-          <a:chExt cx="1715770" cy="1474232"/>
+          <a:chExt cx="1796425" cy="1474232"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -1125,8 +1128,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1449521" y="4869418"/>
-            <a:ext cx="1575571" cy="419394"/>
+            <a:off x="1449520" y="4869418"/>
+            <a:ext cx="1736341" cy="419394"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1286,6 +1289,319 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2495550" cy="355162"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5492750" y="5670550"/>
+              <a:ext cx="2495550" cy="355162"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Adjust</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> ratio </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑀𝑒𝑎𝑠𝑢𝑟𝑒𝑑</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑋</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="-25000">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="-25000">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>−</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="-25000">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝐿</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑅𝑒𝑓𝑒𝑟𝑒𝑛𝑐𝑒</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑋</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="-25000">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="-25000">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>−</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="-25000">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐿</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5492750" y="5670550"/>
+              <a:ext cx="2495550" cy="355162"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Adjust</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> ratio </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>=(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑀𝑒𝑎𝑠𝑢𝑟𝑒𝑑 𝑋 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="-25000">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝐵−𝐿)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑅𝑒𝑓𝑒𝑟𝑒𝑛𝑐𝑒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑋 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="-25000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="-25000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−𝐿)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1304,16 +1620,16 @@
   <autoFilter ref="A4:D13"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Location" dataDxfId="24"/>
-    <tableColumn id="2" name="X (A-&gt;P)" dataDxfId="23"/>
-    <tableColumn id="3" name="Y(M-&gt;L)" dataDxfId="22"/>
-    <tableColumn id="4" name="Z (D-&gt;V, from skull plane)" dataDxfId="21"/>
+    <tableColumn id="2" name="X (A-&gt;P) 0.X sigfig" dataDxfId="23"/>
+    <tableColumn id="3" name="Y(M-&gt;L) 0.X sigfig" dataDxfId="22"/>
+    <tableColumn id="4" name="Z (D-&gt;V, from skull plane) 0.X sigfig" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="F4:I7" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="F4:I7" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16">
   <autoFilter ref="F4:I7"/>
   <tableColumns count="4">
     <tableColumn id="1" name="TARGETS" dataDxfId="15"/>
@@ -1643,8 +1959,8 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1652,9 +1968,9 @@
     <col min="1" max="1" width="12.08984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.36328125" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
@@ -1663,41 +1979,41 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" s="22" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="B4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>20</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1705,25 +2021,25 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -1731,44 +2047,44 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>2</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>1.5</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="F7" s="14" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="F7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1777,27 +2093,27 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>19</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>8</v>
@@ -1814,24 +2130,24 @@
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="14">
+        <v>17</v>
+      </c>
+      <c r="F10" s="13">
         <v>30</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="14">
         <v>1</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <v>1</v>
       </c>
       <c r="I10" s="1">
@@ -1839,17 +2155,17 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1857,61 +2173,61 @@
         <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="14">
+        <v>35</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="13">
         <v>0.1</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <f>implant!$F$10:$F$10/60</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>43</v>
+      <c r="A15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F16" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>44</v>
+      <c r="F16" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="6:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F17" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>45</v>
+      <c r="F17" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="6:7" ht="12.5" x14ac:dyDescent="0.25"/>

--- a/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_RPC-EMG_KK01.xlsx
+++ b/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_RPC-EMG_KK01.xlsx
@@ -891,13 +891,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
@@ -915,6 +908,13 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1297,8 +1297,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2495550" cy="355162"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -1415,7 +1415,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1427,7 +1427,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1439,7 +1439,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1451,7 +1451,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1490,7 +1490,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -1629,7 +1629,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="F4:I7" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="F4:I7" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="F4:I7"/>
   <tableColumns count="4">
     <tableColumn id="1" name="TARGETS" dataDxfId="15"/>
@@ -1959,8 +1959,8 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2233,7 +2233,7 @@
     <row r="25" spans="6:7" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="68" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="69" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <oleObjects>

--- a/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_RPC-EMG_KK01.xlsx
+++ b/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_RPC-EMG_KK01.xlsx
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>Bregma</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>Z (mm, from skull plane)</t>
-  </si>
-  <si>
-    <t>Animal ID:</t>
   </si>
   <si>
     <t>CCMS Cage#</t>
@@ -210,9 +207,6 @@
     </r>
   </si>
   <si>
-    <t>L-M1/EEG2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Drill Sequence: </t>
   </si>
   <si>
@@ -237,15 +231,6 @@
     <t>EMG-L/EEG3</t>
   </si>
   <si>
-    <t>COMM, GND, R-PC</t>
-  </si>
-  <si>
-    <t>R-PC, GND, COMM, EMG</t>
-  </si>
-  <si>
-    <t>GND, L-M1/EEG2, EMG-R/EEG3, EMG-L, R-PC/EEG1</t>
-  </si>
-  <si>
     <t>(Lambda_Y)-(1.0*adjust_ratio) = _____</t>
   </si>
   <si>
@@ -258,13 +243,46 @@
     <t>(Lambda_Y)+(1.0*adjust_ratio) = _____</t>
   </si>
   <si>
-    <t>X (A-&gt;P) 0.X sigfig</t>
-  </si>
-  <si>
-    <t>Y(M-&gt;L) 0.X sigfig</t>
-  </si>
-  <si>
-    <t>Z (D-&gt;V, from skull plane) 0.X sigfig</t>
+    <t>L-PC/EEG2</t>
+  </si>
+  <si>
+    <t>Acceptance:</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>0.1mm</t>
+  </si>
+  <si>
+    <t>X (A-&gt;P) 0.X mm sigfig</t>
+  </si>
+  <si>
+    <t>Y(M-&gt;L) 0.X mm sigfig</t>
+  </si>
+  <si>
+    <t>Z (D-&gt;V, from skull plane) 0.X mm sigfig</t>
+  </si>
+  <si>
+    <t>COMM, GND, R-PC, L-PC</t>
+  </si>
+  <si>
+    <t>R-PC, L-PC, GND, COMM, EMG</t>
+  </si>
+  <si>
+    <t>GND, L-PC/EEG2, EMG-R/EEG3, EMG-L, R-PC/EEG1</t>
+  </si>
+  <si>
+    <t>Implant ID:</t>
+  </si>
+  <si>
+    <t>Ear Tag #</t>
   </si>
 </sst>
 </file>
@@ -1620,9 +1638,9 @@
   <autoFilter ref="A4:D13"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Location" dataDxfId="24"/>
-    <tableColumn id="2" name="X (A-&gt;P) 0.X sigfig" dataDxfId="23"/>
-    <tableColumn id="3" name="Y(M-&gt;L) 0.X sigfig" dataDxfId="22"/>
-    <tableColumn id="4" name="Z (D-&gt;V, from skull plane) 0.X sigfig" dataDxfId="21"/>
+    <tableColumn id="2" name="X (A-&gt;P) 0.X mm sigfig" dataDxfId="23"/>
+    <tableColumn id="3" name="Y(M-&gt;L) 0.X mm sigfig" dataDxfId="22"/>
+    <tableColumn id="4" name="Z (D-&gt;V, from skull plane) 0.X mm sigfig" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1957,10 +1975,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1979,15 +1997,18 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="22" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1995,13 +2016,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>6</v>
@@ -2030,16 +2051,16 @@
         <v>12</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -2096,7 +2117,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>17</v>
@@ -2104,13 +2125,13 @@
     </row>
     <row r="9" spans="1:9" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>17</v>
@@ -2130,13 +2151,13 @@
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>17</v>
@@ -2155,16 +2176,16 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="20" t="s">
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2176,21 +2197,21 @@
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>13</v>
@@ -2205,32 +2226,60 @@
     </row>
     <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="G15" s="19" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F16" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="17" spans="6:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F17" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="25" spans="6:7" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="4:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="69" orientation="landscape" r:id="rId1"/>

--- a/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_RPC-EMG_KK01.xlsx
+++ b/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_RPC-EMG_KK01.xlsx
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>Bregma</t>
   </si>
@@ -284,6 +284,32 @@
   <si>
     <t>Ear Tag #</t>
   </si>
+  <si>
+    <t>DoB:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify Tilt: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2.0 mm lateral of sagital suture, measure Z</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -292,7 +318,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +385,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1977,8 +2009,8 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2000,6 +2032,9 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2180,7 +2215,7 @@
         <v>38</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
@@ -2228,26 +2263,31 @@
       <c r="A15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F16" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>48</v>
+      <c r="F15" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="4:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G19" s="19" t="s">
         <v>49</v>
       </c>
     </row>

--- a/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_RPC-EMG_KK01.xlsx
+++ b/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_RPC-EMG_KK01.xlsx
@@ -2009,7 +2009,7 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>

--- a/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_RPC-EMG_KK01.xlsx
+++ b/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_RPC-EMG_KK01.xlsx
@@ -2009,8 +2009,8 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
